--- a/Data y gráficos/Gráficos de Tesis/Horizon IRFs/Horizon IRFs.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/Horizon IRFs/Horizon IRFs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/Gráficos de Tesis/Horizon IRFs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{9B630102-004F-4DFC-92EF-0879471A886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6F1D242-1473-4CB5-B33B-ECD497C7E283}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{9B630102-004F-4DFC-92EF-0879471A886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{825D8917-8FE7-4BF0-B699-BFEE47F201B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1A59EDF6-6142-407F-8956-FC7C3DA90DE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{1A59EDF6-6142-407F-8956-FC7C3DA90DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="H_Findex" sheetId="1" r:id="rId1"/>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A8B013-4858-4C6D-BE90-DDC8C1F412C5}">
   <dimension ref="A1:BX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +903,7 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>78</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>77</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>5.7188808062452225E-2</v>
@@ -4353,7 +4353,7 @@
         <v>76</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>-0.14256900906086634</v>
@@ -5503,7 +5503,7 @@
         <v>75</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>-9.4432871998074375E-2</v>
@@ -6653,7 +6653,7 @@
         <v>74</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>-0.1353281312466601</v>
@@ -7808,7 +7808,7 @@
   <dimension ref="A1:BX31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8048,7 +8048,7 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>78</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>77</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>7.6185549931104208E-3</v>
@@ -11498,7 +11498,7 @@
         <v>76</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>5.1008769541409281E-2</v>
@@ -12648,7 +12648,7 @@
         <v>75</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>6.5822705425681846E-2</v>
@@ -13798,7 +13798,7 @@
         <v>74</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0.11364785390524811</v>
@@ -14953,7 +14953,7 @@
   <dimension ref="A1:BX31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15193,7 +15193,7 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16343,7 +16343,7 @@
         <v>78</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -17493,7 +17493,7 @@
         <v>77</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>-5.5366585461624221E-2</v>
@@ -18643,7 +18643,7 @@
         <v>76</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>3.4203049347304691E-2</v>
@@ -19793,7 +19793,7 @@
         <v>75</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>-1.9570259929830268E-2</v>
@@ -20943,7 +20943,7 @@
         <v>74</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>-3.8053620092186852E-2</v>
@@ -22097,8 +22097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02779742-E210-41B7-BCDF-D381BD79FD0A}">
   <dimension ref="A1:BX31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22338,7 +22338,7 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -23488,7 +23488,7 @@
         <v>78</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -24638,7 +24638,7 @@
         <v>77</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>3.5093077063682837E-2</v>
@@ -25788,7 +25788,7 @@
         <v>76</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0.21863061413664692</v>
@@ -26938,7 +26938,7 @@
         <v>75</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0.21306424712557429</v>
@@ -28088,7 +28088,7 @@
         <v>74</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0.24846945679163693</v>
